--- a/docs/report/references.xlsx
+++ b/docs/report/references.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
-  <si>
-    <t>Full Citation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Short Citation</t>
   </si>
@@ -75,9 +72,6 @@
     <t>Conclusions</t>
   </si>
   <si>
-    <t>Sezgin, E., Huang, Y., Ramtekkar, U. et al. Readiness for voice assistants to support healthcare delivery during a health crisis and pandemic. npj Digit. Med. 3, 122 (2020).</t>
-  </si>
-  <si>
     <t>Keep Calm and Switch On! Preserving Sentiment and Fluency in Semantic Text Exchange</t>
   </si>
   <si>
@@ -111,21 +105,85 @@
     <t>Short report</t>
   </si>
   <si>
-    <t>Risk reduction of cognitive decline and dementia: WHO guidelines. Geneva: World Health Organization; 2019. Licence: CC BY-NC-SA 3.0 IGO</t>
-  </si>
-  <si>
     <t>Usefulness</t>
   </si>
   <si>
     <t>WHO guidelines for dealing with dementia</t>
+  </si>
+  <si>
+    <t>Designing a spoken dialogue interface to an intelligent cognitive assistant for people with dementia</t>
+  </si>
+  <si>
+    <t>SAGE Journals</t>
+  </si>
+  <si>
+    <t>(Wolters, Kelly and Kilgour 2016)</t>
+  </si>
+  <si>
+    <t>(World Health Organization 2019)</t>
+  </si>
+  <si>
+    <t>Risk reduction of cognitive decline and dementia: WHO guidelines</t>
+  </si>
+  <si>
+    <t>Developed intelligent cognitive assistant to help manage a calendar</t>
+  </si>
+  <si>
+    <t>Very relevant to project idea</t>
+  </si>
+  <si>
+    <t>Speech processing/creation is maintained; User requirements of older adults; Suitabilty of ICAs</t>
+  </si>
+  <si>
+    <t>Help people living with dementia to use technology</t>
+  </si>
+  <si>
+    <t>World Alzheimer Report 2015</t>
+  </si>
+  <si>
+    <t>Altzheimer's Disease International</t>
+  </si>
+  <si>
+    <r>
+      <t>(A. Reis </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2018)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -459,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,137 +534,179 @@
     <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="100.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>2020</v>
       </c>
-      <c r="K3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>31</v>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/report/references.xlsx
+++ b/docs/report/references.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="206">
   <si>
     <t>Short Citation</t>
   </si>
@@ -42,30 +42,12 @@
     <t>Aretha - Privacy focused voice assistant</t>
   </si>
   <si>
-    <t>Privacy focused assistnat</t>
-  </si>
-  <si>
     <t>Key Points</t>
   </si>
   <si>
-    <t xml:space="preserve">Black box of consumer products; </t>
-  </si>
-  <si>
-    <t>Transparancy of implementation</t>
-  </si>
-  <si>
-    <t>Oxford University</t>
-  </si>
-  <si>
     <t>Readiness for voice assistants to support healthcare delivery during a health crisis and pandemic</t>
   </si>
   <si>
-    <t>Provide healthcare support remotely</t>
-  </si>
-  <si>
-    <t>Current state of IDAs</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -144,8 +126,61 @@
     <t>Altzheimer's Disease International</t>
   </si>
   <si>
+    <t>Privacy focused assistant</t>
+  </si>
+  <si>
+    <t>Author(s)</t>
+  </si>
+  <si>
+    <t>William Seymour; Max Van Kleek; Reuben Binns; Nigel Shadbolt</t>
+  </si>
+  <si>
+    <t>Transparancy of implementation; Education of users about privacy risks</t>
+  </si>
+  <si>
+    <t>Raises issue about privacy and transparency, which would be a desirable feature</t>
+  </si>
+  <si>
+    <t>IET</t>
+  </si>
+  <si>
+    <t>Critique(s)</t>
+  </si>
+  <si>
+    <t>Mostly theoretical; no empirical evidence or testing completed</t>
+  </si>
+  <si>
+    <t>Hope to challenge perceptions of voice assistants</t>
+  </si>
+  <si>
     <r>
-      <t>(A. Reis </t>
+      <t xml:space="preserve">(Seymour </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2019)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Reis </t>
     </r>
     <r>
       <rPr>
@@ -169,12 +204,512 @@
       <t>. 2018)</t>
     </r>
   </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9038018</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Emre Sezgin, Yungui Huang, Ujjwal Ramtekkar, &amp; Simon Lin</t>
+  </si>
+  <si>
+    <t>Black box of consumer products; Lack of consumer understanding of privacy</t>
+  </si>
+  <si>
+    <t>State of current IDAs</t>
+  </si>
+  <si>
+    <t>Provide healthcare support remotely; Counter pandemic</t>
+  </si>
+  <si>
+    <t>Good current analysis of IDAs;</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <r>
+      <t>(Sezgin</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2020)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41746-020-00332-0</t>
+  </si>
+  <si>
+    <t>Good promise for VAs in distributing health information in emergencies</t>
+  </si>
+  <si>
+    <t>Steven Y. Feng, Aaron W. Li, Jesse Hoey</t>
+  </si>
+  <si>
+    <t>Improve fluency of synthesised speech for chatbots/VAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMERTI; Improved relatability; </t>
+  </si>
+  <si>
+    <t>Specific mention of improving chatbots/VAs for users with cognitive disabilites; Technical aspect thorough may not be implemented in this project</t>
+  </si>
+  <si>
+    <t>Proposed technique tested effectively; Concerns over missue of high-quality text generation; Needs more fine-tuning of personality</t>
+  </si>
+  <si>
+    <t>ResearchGate</t>
+  </si>
+  <si>
+    <t>(Feng, Li and Hoey 2019)</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/335599220_Keep_Calm_and_Switch_On_Preserving_Sentiment_and_Fluency_in_Semantic_Text_Exchange</t>
+  </si>
+  <si>
+    <t>Manual Search</t>
+  </si>
+  <si>
+    <t>Found</t>
+  </si>
+  <si>
+    <t>Arsénio Reis; Dennis Paulino; Hugo Paredes; Isabel Barroso; Maria João Monteiro; Vitor Rodrigues; João Barroso</t>
+  </si>
+  <si>
+    <t>2018 2nd International Conference on TISHW</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8559503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduce social isolation of elderly; </t>
+  </si>
+  <si>
+    <t>Little analysis of technology needs of elders</t>
+  </si>
+  <si>
+    <t>Good current analysis of IDAs</t>
+  </si>
+  <si>
+    <t>Search Queries</t>
+  </si>
+  <si>
+    <t>Ref ID</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>V. Chuckun, G. Coonjan, L. Nagowah</t>
+  </si>
+  <si>
+    <t>Enabling the Disabled using mHealth</t>
+  </si>
+  <si>
+    <t>December 7, 2020</t>
+  </si>
+  <si>
+    <t>Jefferson, Madeline</t>
+  </si>
+  <si>
+    <t>Usability of Automatic Speech Recognition Systems for Individuals with Speech Disorders: Past, Present, Future, and A Proposed Model</t>
+  </si>
+  <si>
+    <t>N. Liappas, J. G. Terius-Padron, E. Machado, M. R. Loghmani, R. I. Garcia-Betances, M. Vincze, I. Carrillo Quero, M. F. Cabrera-Umpierrez</t>
+  </si>
+  <si>
+    <t>Best Practices on Personalization and Adaptive Interaction Techniques in the Scope of Smart Homes and Active Assisted Living</t>
+  </si>
+  <si>
+    <t>Dixon,Emma, Lazar,Amanda</t>
+  </si>
+  <si>
+    <t>The Role of Sensory Changes in Everyday Technology Use by People with Mild to Moderate Dementia</t>
+  </si>
+  <si>
+    <t>Masina,Fabio, Orso,Valeria, Pluchino,Patrik, Dainese,Giulia, Volpato,Stefania, Nelini,Cristian, Mapelli,Daniela, Spagnolli,Anna, Gamberini,Luciano</t>
+  </si>
+  <si>
+    <t>Investigating the Accessibility of Voice Assistants With Impaired Users: Mixed Methods Study</t>
+  </si>
+  <si>
+    <t>Chung,Arlene E., Griffin,Ashley C., Selezneva,Dasha, Gotz,David</t>
+  </si>
+  <si>
+    <t>Health and Fitness Apps for Hands-Free Voice-Activated Assistants: Content Analysis</t>
+  </si>
+  <si>
+    <t>Moniz-Cook, Esme, Hart, Cathryn, Woods, Bob, Whitaker, Chris, James, Ian, Russell, Ian, Edwards, Rhiannon Tudor, Hilton, Andrea, Orrell, Martin, Campion, Peter, Stokes, Graham, Jones, Robert SP, Bird, Mike, Poland, Fiona, Manthorpe, Jill</t>
+  </si>
+  <si>
+    <t>Challenge Demcare: management of challenging behaviour in dementia at home and in care homes – development, evaluation and implementation of an online individualised intervention for care homes; and a cohort study of specialist community mental health car</t>
+  </si>
+  <si>
+    <t>Reilly,S., Miranda‐Castillo, C, Malouf,R., Hoe,J., Toot,S., Challis,D., Orrell,M.</t>
+  </si>
+  <si>
+    <t>Case management approaches to home support for people with dementia</t>
+  </si>
+  <si>
+    <t>Auer,Stefanie, Linsmayer,Elisabeth, Beránková, Anna, Pascher,Patrick, Firlinger,Bernadette, Prischl,Doris, Ratajczak,Paulina, Span,Edith, Holmerova,Iva</t>
+  </si>
+  <si>
+    <t>DEMDATA: The Austrian-Czech institutional long term care project – design and protocol of a two-centre cross sectional study</t>
+  </si>
+  <si>
+    <t>Maresova,Petra, Hruska,Jan, Klimova,Blanka, Barakovic,Sabina, Krejcar,Ondrej</t>
+  </si>
+  <si>
+    <t>Activities of Daily Living and Associated Costs in the Most Widespread Neurodegenerative Diseases: A Systematic Review</t>
+  </si>
+  <si>
+    <t>Ju,Yeong Jun, Nam,Chung Mo, Lee,Sang Gyu, Park,Sohee, Hahm,Myung-Il, Park,Eun-Cheol</t>
+  </si>
+  <si>
+    <t>Evaluation of the South Korean national long-term care insurance-funded cognitive function training programme for older people with mild dementia</t>
+  </si>
+  <si>
+    <t>Jackson de Carvalho, Associate Professor Prairie View A, M University Prairie View, Texas 77446 United States of America</t>
+  </si>
+  <si>
+    <t>Understanding Dementia: Metabolic and Psychosocial Risk Factors</t>
+  </si>
+  <si>
+    <t>Lord,Kathryn, Beresford-Dent, Jules, Rapaport,Penny, Burton,Alex, Leverton,Monica, Walters,Kate, Lang,Iain, Downs,Murna, Manthorpe,Jill, Boex,Sue, Jackson,Joy, Ogden,Margaret, Cooper,Claudia</t>
+  </si>
+  <si>
+    <t>Developing the New Interventions for independence in Dementia Study (NIDUS) theoretical model for supporting people to live well with dementia at home for longer: a systematic review of theoretical models and Randomised Controlled Trial evidence</t>
+  </si>
+  <si>
+    <t>Nakanishi,Miharu, Hirooka,Kayo, Morimoto,Yuko, Nishida,Atsushi</t>
+  </si>
+  <si>
+    <t>Quality of care for people with dementia and professional caregivers' perspectives regarding palliative care in Japanese community care settings</t>
+  </si>
+  <si>
+    <t>van Haeften-van Dijk,A.M., Meiland,F.J.M., van Mierlo,L.D., Dröes,R.M.</t>
+  </si>
+  <si>
+    <t>Transforming nursing home-based day care for people with dementia into socially integrated community day care: Process analysis of the transition of six day care centres</t>
+  </si>
+  <si>
+    <t>Cabrera,E., Sutcliffe,C., Verbeek,H., Saks,K., Soto-Martin,M., Meyer,G., Leino-Kilpi,H., Karlsson,S., Zabalegui,A.</t>
+  </si>
+  <si>
+    <t>Non-pharmacological interventions as a best practice strategy in people with dementia living in nursing homes. A systematic review</t>
+  </si>
+  <si>
+    <t>Jia,Longfei, Quan,Meina, Fu,Yue, Zhao,Tan, Li,Yan, Wei,Cuibai, Tang,Yi, Qin,Qi, Wang,Fen, Qiao,Yuchen, Shi,Shengliang, Wang,Yan-Jiang, Du,Yifeng, Zhang,Jiewen, Zhang,Junjian, Luo,Benyan, Qu,Qiumin, Zhou,Chunkui, Gauthier,Serge, Jia,Jianping</t>
+  </si>
+  <si>
+    <t>Dementia in China: epidemiology, clinical management, and research advances</t>
+  </si>
+  <si>
+    <t>L. Koumakis, C. Chatzaki, E. Kazantzaki, E. Maniadi, M. Tsiknakis</t>
+  </si>
+  <si>
+    <t>Dementia Care Frameworks and Assistive Technologies for Their Implementation: A Review</t>
+  </si>
+  <si>
+    <t>Kolehmainen,Millicent, Kolehmainen,Millicent</t>
+  </si>
+  <si>
+    <t>Enhancing elderly well-being through technology: An integrating Literature review</t>
+  </si>
+  <si>
+    <t>Damant,Jacqueline, Knapp,Martin, Freddolino,Paul, Lombard,Daniel</t>
+  </si>
+  <si>
+    <t>Effects of digital engagement on the quality of life of older people</t>
+  </si>
+  <si>
+    <t>Thorstensen, Erik</t>
+  </si>
+  <si>
+    <t>Literature review of responsible research and innovation on assisted living technologies for the Assisted Living Project</t>
+  </si>
+  <si>
+    <t>December 6, 2020</t>
+  </si>
+  <si>
+    <t>Hauk,Nathalie, Hüffmeier,Joachim, Krumm,Stefan</t>
+  </si>
+  <si>
+    <t>Ready to be a Silver Surfer? A Meta-analysis on the Relationship Between Chronological Age and Technology Acceptance</t>
+  </si>
+  <si>
+    <t>Quatro, Susan</t>
+  </si>
+  <si>
+    <t>Digital Communication Tools Used by Those 65 and Older: The Benefits and Barriers of Use</t>
+  </si>
+  <si>
+    <t>Creech,Andrea</t>
+  </si>
+  <si>
+    <t>Using Music Technology Creatively to Enrich Later-Life: A Literature Review</t>
+  </si>
+  <si>
+    <t>Leikas, Jaana, Koivisto, Raija</t>
+  </si>
+  <si>
+    <t>Ethics assessment in different fields: social gerontechnology</t>
+  </si>
+  <si>
+    <t>Iancu,Ioana, Iancu,Bogdan</t>
+  </si>
+  <si>
+    <t>Designing mobile technology for elderly. A theoretical overview</t>
+  </si>
+  <si>
+    <t>van,Zaalen Yvonne, Mary,McDonnell, Mikołajczyk Barbara, Sandra,Buttigieg, Requena Maria,del Carmen, Fred,Holtkamp</t>
+  </si>
+  <si>
+    <t>Technology implementation in delivery of healthcare to older people: how can the least voiced in society be heard?</t>
+  </si>
+  <si>
+    <t>Master’s Thesis in Interaction Design</t>
+  </si>
+  <si>
+    <t>Factors and challenges when designing an ICT-tool for people with dementia</t>
+  </si>
+  <si>
+    <t>Wargnier,Pierre</t>
+  </si>
+  <si>
+    <t>Virtual human technologies for cognitively-impaired older adults' care : the LOUISE and Virtual Promenade experiments</t>
+  </si>
+  <si>
+    <t>Zárate-Bravo, Ernesto, García-Vázquez, Juan-Pablo, Torres-Cervantes, Engracia, Ponce,Gisela, Andrade,Ángel G., Valenzuela-Beltrán, Maribel, Rodríguez, Marcela,D.</t>
+  </si>
+  <si>
+    <t>Supporting the Medication Adherence of Older Mexican Adults Through External Cues Provided With Ambient Displays: Feasibility Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Brophy,Claire J.</t>
+  </si>
+  <si>
+    <t>Design for older users: The importance of the human-technology relationship</t>
+  </si>
+  <si>
+    <t>Hsiao,Shih-Wen, Lee,Chu-Hsuan, Yang,Meng-Hua, Chen,Rong-Qi</t>
+  </si>
+  <si>
+    <t>User interface based on natural interaction design for seniors</t>
+  </si>
+  <si>
+    <t>December 5, 2020</t>
+  </si>
+  <si>
+    <t>J. Cahill, S. McLoughlin, D. Blazek</t>
+  </si>
+  <si>
+    <t>The Design of New Technologies Addressing Independence, Social Participation &amp; Wellness for Older People Domicile in Residential Homes</t>
+  </si>
+  <si>
+    <t>Castilla,Diana, Suso-Ribera, Carlos, Zaragoza,Irene, Garcia-Palacios, Azucena, Botella,Cristina</t>
+  </si>
+  <si>
+    <t>Designing ICTs for Users with Mild Cognitive Impairment: A Usability Study</t>
+  </si>
+  <si>
+    <t>Harte,Richard, Hall,Tony, Glynn,Liam, Rodríguez-Molinero, Alejandro, Scharf,Thomas, Quinlan,Leo R., ÓLaighin, Gearóid</t>
+  </si>
+  <si>
+    <t>Enhancing Home Health Mobile Phone App Usability Through General Smartphone Training: Usability and Learnability Case Study</t>
+  </si>
+  <si>
+    <t>R. A. de Belen, T. Bednarz</t>
+  </si>
+  <si>
+    <t>Mixed Reality and Internet of Things (MRIoT) Interface Design Guidelines for Elderly People</t>
+  </si>
+  <si>
+    <t>Zhong,Yu, Weber,Astrid, Burkhardt,Casey, Weaver,Phil, Bigham,Jeffrey P.</t>
+  </si>
+  <si>
+    <t>Enhancing Android Accessibility for Users with Hand Tremor by Reducing Fine Pointing and Steady Tapping</t>
+  </si>
+  <si>
+    <t>Chowdhury, Sandeep Kumar</t>
+  </si>
+  <si>
+    <t>Avoidance Attitudes towards Virtual Assistants</t>
+  </si>
+  <si>
+    <t>Wittenberg, Raphael, Hu, Bo, Jagger, Carol, Kingston, Andrew, Knapp, Martin, Comas-Herrera, Adelina, King, Derek, Rehill, Amritpal, Banerjee, Sube</t>
+  </si>
+  <si>
+    <t>Projections of care for older people with dementia in England: 2015 to 2040</t>
+  </si>
+  <si>
+    <t>November 23, 2020</t>
+  </si>
+  <si>
+    <t>World Health Organization</t>
+  </si>
+  <si>
+    <t>Wolters,Maria Klara, Kelly,Fiona, Kilgour,Jonathan</t>
+  </si>
+  <si>
+    <t>Palmer,Andrew D., Newsom,Jason T., Rook,Karen S.</t>
+  </si>
+  <si>
+    <t>How does difficulty communicating affect the social relationships of older adults? An exploration using data from a national survey</t>
+  </si>
+  <si>
+    <t>November 20, 2020</t>
+  </si>
+  <si>
+    <t>A. Reis, D. Paulino, H. Paredes, I. Barroso, M. J. Monteiro, V. Rodrigues, J. Barroso</t>
+  </si>
+  <si>
+    <t>November 18, 2020</t>
+  </si>
+  <si>
+    <t>Date Found</t>
+  </si>
+  <si>
+    <t>RefId</t>
+  </si>
+  <si>
+    <t>Conference Paper</t>
+  </si>
+  <si>
+    <t>Developed app for helping visually impared.</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>Speech Disorders and speech recognition</t>
+  </si>
+  <si>
+    <t>Personalization and adaption of smart homes and assisted living</t>
+  </si>
+  <si>
+    <t>Analysed interviews to learn about sensory changes related to dementia and how it affects technology use</t>
+  </si>
+  <si>
+    <t>Work has not been done on sensory issues of dementia and techonology use;</t>
+  </si>
+  <si>
+    <t>Understand sensory changes</t>
+  </si>
+  <si>
+    <t>Applications should be configurable to the users tastes</t>
+  </si>
+  <si>
+    <t>Good references; otherwise tangently related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control of appliances would be helpful; </t>
+  </si>
+  <si>
+    <t>Assess current products performance with users with limited cognitive/lingusitic functions</t>
+  </si>
+  <si>
+    <t>Limited scope of participants (sa); younger/early onset users only (sa)</t>
+  </si>
+  <si>
+    <t>Participants were young; limited population size (sa); Group study only (sa)</t>
+  </si>
+  <si>
+    <t>Current products could be appropritate with some tuning; Correlation between user functions and ability to operate VA</t>
+  </si>
+  <si>
+    <t>Timing is a critical factor for speech recognition; as is memory of keywords/ phrasing; Understanding feedback from system;</t>
+  </si>
+  <si>
+    <t>Understand the difficulties of caring for persons with dementia</t>
+  </si>
+  <si>
+    <t>Lit review of dementia studies</t>
+  </si>
+  <si>
+    <t>Identify the difficulties caused by dementia; explore therapy options; Improve QoL</t>
+  </si>
+  <si>
+    <t>Aging population; Proposed solutions should ensure independence</t>
+  </si>
+  <si>
+    <t>Measuring QoL is hard</t>
+  </si>
+  <si>
+    <t>Study of non-neuropathology elements of dementia - The relationship of social interactions and prevalence</t>
+  </si>
+  <si>
+    <t>Information about caregiver status needed before medical institutions can offer care advice; non-pharmaceutical treatments advised; Care givers need breaks</t>
+  </si>
+  <si>
+    <t>Journal Paper</t>
+  </si>
+  <si>
+    <t>Limited research on psychosocial factors and non-pharmological treatments; Primary care-givers are often challenged/un-trained;</t>
+  </si>
+  <si>
+    <t>Build a model of how to support people living with dementia at home</t>
+  </si>
+  <si>
+    <t>Thorough review of studies; Developed theoretical model</t>
+  </si>
+  <si>
+    <t>Theoretical model describes values and care strategies to allow living longer at home with dementia</t>
+  </si>
+  <si>
+    <t>Divided studies into: Values and Approaches, Care Strategies, Service Models;</t>
+  </si>
+  <si>
+    <t>Evaluated cognitive training programme</t>
+  </si>
+  <si>
+    <t>Difficulties of care</t>
+  </si>
+  <si>
+    <t>Questioned care-givers about quality of care</t>
+  </si>
+  <si>
+    <t>Highlight inadequecies in Japans dementia plan</t>
+  </si>
+  <si>
+    <t>Evaluation of the transition of home-based care centers into community care-centers</t>
+  </si>
+  <si>
+    <t>Insufficent evidence of which non-pharmacuetical interventions are the best</t>
+  </si>
+  <si>
+    <t>Research is scattered</t>
+  </si>
+  <si>
+    <t>Review of technologies and frameworks for dementia patient management; Focus on informal care-givers as users</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,13 +725,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,16 +785,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,196 +1137,1313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="37.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="31.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2019</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G11" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2019</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2019</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2019</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="17">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="H17" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2020</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2018</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2017</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2015</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2017</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="17">
+        <v>2020</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="13">
+        <v>2019</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="17">
+        <v>2020</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="17">
+        <v>2020</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" s="9">
+        <v>2017</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2015</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="13">
+        <v>2015</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="9">
+        <v>2020</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="17">
+        <v>2019</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2016</v>
+      </c>
+      <c r="L32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="6">
+        <v>2017</v>
+      </c>
+      <c r="L33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="6">
+        <v>2017</v>
+      </c>
+      <c r="L34" t="s">
+        <v>74</v>
+      </c>
+      <c r="O34" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2018</v>
+      </c>
+      <c r="L35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O35" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="L36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O36" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="6">
+        <v>2019</v>
+      </c>
+      <c r="L37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O37" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2016</v>
+      </c>
+      <c r="L38" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2020</v>
+      </c>
+      <c r="L39" t="s">
+        <v>74</v>
+      </c>
+      <c r="O39" t="s">
+        <v>121</v>
+      </c>
+      <c r="P39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="6">
+        <v>2018</v>
+      </c>
+      <c r="L40" t="s">
+        <v>74</v>
+      </c>
+      <c r="O40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="L41" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="6">
+        <v>2016</v>
+      </c>
+      <c r="L42" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" t="s">
+        <v>121</v>
+      </c>
+      <c r="P42">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
+    <row r="43" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2020</v>
+      </c>
+      <c r="L43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O43" t="s">
+        <v>121</v>
+      </c>
+      <c r="P43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="6">
         <v>2018</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="L44" t="s">
+        <v>74</v>
+      </c>
+      <c r="O44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="6">
+        <v>2017</v>
+      </c>
+      <c r="L45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" t="s">
+        <v>144</v>
+      </c>
+      <c r="P45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="6">
+        <v>2017</v>
+      </c>
+      <c r="L46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" t="s">
+        <v>144</v>
+      </c>
+      <c r="P46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="6">
+        <v>2020</v>
+      </c>
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O47" t="s">
+        <v>144</v>
+      </c>
+      <c r="P47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="6">
+        <v>2018</v>
+      </c>
+      <c r="L48" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" t="s">
+        <v>144</v>
+      </c>
+      <c r="P48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2019</v>
+      </c>
+      <c r="L49" t="s">
+        <v>74</v>
+      </c>
+      <c r="O49" t="s">
+        <v>144</v>
+      </c>
+      <c r="P49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="6">
+        <v>2015</v>
+      </c>
+      <c r="L50" t="s">
+        <v>74</v>
+      </c>
+      <c r="O50" t="s">
+        <v>144</v>
+      </c>
+      <c r="P50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2018</v>
+      </c>
+      <c r="L51" t="s">
+        <v>74</v>
+      </c>
+      <c r="O51" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="6">
+        <v>2019</v>
+      </c>
+      <c r="L52" t="s">
+        <v>74</v>
+      </c>
+      <c r="O52" t="s">
+        <v>159</v>
+      </c>
+      <c r="P52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" s="6">
+        <v>2019</v>
+      </c>
+      <c r="L53" t="s">
+        <v>74</v>
+      </c>
+      <c r="O53" t="s">
+        <v>159</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
+      <c r="B54" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="17">
+        <v>2016</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="P54" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="6">
+        <v>2016</v>
+      </c>
+      <c r="L55" t="s">
+        <v>74</v>
+      </c>
+      <c r="O55" t="s">
+        <v>164</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" s="6">
+        <v>2018</v>
+      </c>
+      <c r="L56" t="s">
+        <v>74</v>
+      </c>
+      <c r="O56" t="s">
+        <v>166</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -717,12 +2454,541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
